--- a/public/file/exam.xlsx
+++ b/public/file/exam.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hermit/Desktop/PHP_Code/safe/public/file/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0DE11CD-A4F2-004D-B3C2-E8901FB5F804}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="10067"/>
+    <workbookView xWindow="3680" yWindow="460" windowWidth="23340" windowHeight="16900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$71</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="379">
   <si>
     <t>安全通识</t>
   </si>
@@ -332,9 +338,6 @@
     <t>关机走人</t>
   </si>
   <si>
-    <t>继续使用注意观察</t>
-  </si>
-  <si>
     <t>停机自行维修</t>
   </si>
   <si>
@@ -458,110 +461,882 @@
     <t>随意处置</t>
   </si>
   <si>
+    <t>《中华人民共和国消防法》规定：消防工作贯彻（ ）的方针，坚持专门机关与群众相结合的原则，实行防火安全责任制。</t>
+  </si>
+  <si>
+    <t>谁主管、谁负责</t>
+  </si>
+  <si>
+    <t>以防为主，以消为辅</t>
+  </si>
+  <si>
+    <t>预防为主，防消结合</t>
+  </si>
+  <si>
+    <t>电气安全</t>
+  </si>
+  <si>
+    <t>电气线路发生火灾的原因最可能是（）</t>
+  </si>
+  <si>
+    <t>导线接触不良</t>
+  </si>
+  <si>
+    <t>线路短路保护未动作</t>
+  </si>
+  <si>
+    <t>电气误操作</t>
+  </si>
+  <si>
+    <t>线路发生倒杆事故</t>
+  </si>
+  <si>
+    <t>化学品安全</t>
+  </si>
+  <si>
+    <t>具有下列哪些性质的化学品属于化学危险品( )</t>
+  </si>
+  <si>
+    <t>爆炸</t>
+  </si>
+  <si>
+    <t>易燃、腐蚀、放射性</t>
+  </si>
+  <si>
+    <t>毒害</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 以上都是</t>
+  </si>
+  <si>
+    <t>机械建筑安全</t>
+  </si>
+  <si>
+    <t>使用LES双向加载岩体开挖模拟试验机时，在试验或校力过程中如有紧急情况发生，应立即按下“急停“按钮。()</t>
+  </si>
+  <si>
+    <t>特种设备安全</t>
+  </si>
+  <si>
+    <t>学校对特种设备安全的检查或抽查内容没有的是（）</t>
+  </si>
+  <si>
+    <t>特种设备操作规程和执行情况</t>
+  </si>
+  <si>
+    <t>特种设备负责人和使用人员落实情况</t>
+  </si>
+  <si>
+    <t>特种设备技术档案建立情况</t>
+  </si>
+  <si>
+    <t>特种设备及其部件的形状完好情况</t>
+  </si>
+  <si>
+    <t>医学生物安全</t>
+  </si>
+  <si>
+    <t>1人</t>
+  </si>
+  <si>
+    <t>2人</t>
+  </si>
+  <si>
+    <t>3人</t>
+  </si>
+  <si>
+    <t>4人</t>
+  </si>
+  <si>
+    <t>保险丝和空气开关可以有效地防止电气火灾。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>误吸入煤气等有毒气体时，应立即在室外呼吸新鲜空气。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易燃、易爆气体和助燃气体（氧气等）的钢瓶不得混放在一起，并应远离热源和火源，保持通风。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电分强电和弱电，弱电开关等元件不能用在强电电路。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电气设备发生火灾时，应注意：1、电气设备可能带电，可能发生触电事故；2、某些电气设备充有大量的油，可能发生喷油甚至爆炸。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全通识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不得带着实验防护手套开门、翻阅书籍、使用电脑。</t>
+  </si>
+  <si>
+    <t>实验废弃物应分类存放，及时送学校废弃物中转站，最后由学校联系有资质的公司进行处理。</t>
+  </si>
+  <si>
+    <t>打开含有高压变压器或电容器的电子仪器的盖子是危险的。</t>
+  </si>
+  <si>
+    <t>氰化钾、氰化钠、丙烯腈等是剧毒品，进入人体50毫克即可致死，与皮肤接触经伤口进入人体，即可引起严重中毒。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>溅入口中已下咽的毒物，应根据毒物的性质服解毒剂，并立即送医院。</t>
+  </si>
+  <si>
+    <t>实验中遇到严重割伤，可在伤口上部10cm处用沙布扎紧，减慢流血，并立即送医院。</t>
+  </si>
+  <si>
+    <t>因吸入少量氯气、溴蒸气而中毒，可用碳酸氢钠溶液漱口，不可进行人工呼吸。</t>
+  </si>
+  <si>
+    <t>各种电源是否有电，可用试电笔检验。</t>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造过程中，不要站立在容易飞出火星和锻件毛边的地方。</t>
+  </si>
+  <si>
+    <t>离开实验室时，实验服不得穿着外出，必须脱下并留在实验室内，更不能携带回家。</t>
+  </si>
+  <si>
+    <t>在使用手电钻、电砂轮等手持电动工具时，为保证安全，应该装设漏电保护器。</t>
+  </si>
+  <si>
+    <t>万用表电阻档可测量绝缘电阻。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造过程中，身体不得接触尚未冷却透的锻件。</t>
+  </si>
+  <si>
+    <t>使用过的实验服脱下后，不得与日常衣服放在一起，也不得放在洁净区域。</t>
+  </si>
+  <si>
+    <t>电路谐振时，电容的电压可以是电源电压的几倍。</t>
+  </si>
+  <si>
+    <t>如遇呼吸道吸进有毒气体、蒸气、烟雾而引起呼吸系统中毒时，应立即将病人移至室外空气新鲜的地方，解开衣领，使之温暖和安静，切勿随便进行人工呼吸。</t>
+  </si>
+  <si>
+    <t>化学品安全</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验室门口应挂上写有安全责任人的姓名和联系方式的牌子。</t>
+  </si>
+  <si>
+    <t>因实验需要，仪器设备可以随便拆装。</t>
+  </si>
+  <si>
+    <t>夏季天气热时可以在实验室内穿露有脚趾的鞋。</t>
+  </si>
+  <si>
+    <t>手工锻造时思想要集中，掌钳者必须夹牢和放稳工件，并控制锤击方向。</t>
+  </si>
+  <si>
+    <t>中毒事故中救护人员进入现场，应先抢救中毒者，再采取措施切断毒物来源。</t>
+  </si>
+  <si>
+    <t>任何单位和个人不得在电子公告系统、聊天室、网络新闻组上发布、谈论和传播国家秘密信息。</t>
+  </si>
+  <si>
+    <t>电火花机床开机后可以触摸两电极。</t>
+  </si>
+  <si>
+    <t>液体和固体实验废弃物不需分开放置。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作地点相对湿度大于75%时，属于什么环境？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>危险、易触电</t>
+  </si>
+  <si>
+    <t>不危险</t>
+  </si>
+  <si>
+    <t>一般</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验室钥匙不得私自配置或给他人使用。钥匙的配发、管理由谁负责？</t>
+  </si>
+  <si>
+    <t>实验室主任</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>指导教师</t>
+  </si>
+  <si>
+    <t>学生</t>
+  </si>
+  <si>
+    <t>在冲压过程中，装卸工件时，应注意什么事项？</t>
+  </si>
+  <si>
+    <t>脚应离开踏杆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚可以一直搭在踏杆上，只要不用力</t>
+  </si>
+  <si>
+    <t>脚可以时而踩在踏杆，时而离开踏杆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不用注意</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身上着火，最好的做法是：</t>
+  </si>
+  <si>
+    <t>就地打滚或用水冲</t>
+  </si>
+  <si>
+    <t>奔跑</t>
+  </si>
+  <si>
+    <t>大声呼救</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>边跑边脱衣服</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验大楼因出现火情发生浓烟已穿入实验室内时，以下哪种行为是正确的？</t>
+  </si>
+  <si>
+    <t>沿地面匍匐前进，当逃到门口时，不要站立开门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开实验室门后不用随手关门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从楼上向楼下外逃时可以乘电梯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单相三芯线电缆中的红线代表什么？</t>
+  </si>
+  <si>
+    <t>零线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地线</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不明确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对常用的又是易制毒的试剂，应：</t>
+  </si>
+  <si>
+    <t>锁在实验室的试剂柜中，并由专人管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放在抽屉里，并由专人管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>放在试剂架上</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>采取适当的措施，使燃烧因缺乏或隔绝氧气而熄灭，这种方法称作:</t>
+  </si>
+  <si>
+    <t>窒息灭火法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔离灭火法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷却灭火法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在有电阻、电容、电感的电路中，电源电压是几十伏，电容或电感的电压可以是：</t>
+  </si>
+  <si>
+    <t>几十伏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不超过电源电压</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超过百伏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不会触死人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回流和加热时，液体量不能超过烧瓶容量的：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>医学生物安全</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电气设备的外壳应有什么防护措施?</t>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护性接地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>防锈漆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用电气设备时，由于维护不及时，当什么进入时可导致短路事故？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>导电粉尘或纤维</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>强光辐射</t>
+  </si>
+  <si>
+    <t>高温环境</t>
+  </si>
+  <si>
+    <t>潮气</t>
+  </si>
+  <si>
+    <t>漏电保护器对下例哪种情况不起作用？</t>
+  </si>
+  <si>
+    <t>单手碰到带电体</t>
+  </si>
+  <si>
+    <t>人体碰到带电设备</t>
+  </si>
+  <si>
+    <t>双手碰到两相电线（此时人体作为负载，已触电）</t>
+  </si>
+  <si>
+    <t>人体碰到漏电机壳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于高压电容器，实验结束后或闲置时，如何处理最合适？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电极接地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双电极短接（串接合适电阻进行放电）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>双电极接地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用车床切削工件时要先锁紧：</t>
+  </si>
+  <si>
+    <t>尾座</t>
+  </si>
+  <si>
+    <t>尾座套筒</t>
+  </si>
+  <si>
+    <t>刀架</t>
+  </si>
+  <si>
+    <t>螺母</t>
+  </si>
+  <si>
+    <t>测量绝缘电阻可用：</t>
+  </si>
+  <si>
+    <t>万用表</t>
+  </si>
+  <si>
+    <t>兆欧表</t>
+  </si>
+  <si>
+    <t>示波器</t>
+  </si>
+  <si>
+    <t>电笔</t>
+  </si>
+  <si>
+    <t>数控车床在车削加工时必须：</t>
+  </si>
+  <si>
+    <t>关上防护门</t>
+  </si>
+  <si>
+    <t>不必关上防护门</t>
+  </si>
+  <si>
+    <t>根据需要可关也可开</t>
+  </si>
+  <si>
+    <t>关闭电源</t>
+  </si>
+  <si>
     <t>消防安全</t>
-  </si>
-  <si>
-    <t>《中华人民共和国消防法》规定：消防工作贯彻（ ）的方针，坚持专门机关与群众相结合的原则，实行防火安全责任制。</t>
-  </si>
-  <si>
-    <t>谁主管、谁负责</t>
-  </si>
-  <si>
-    <t>以防为主，以消为辅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特种设备安全</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特种作业中发生事故，将导致重大的（）伤害或设备损失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人身</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业道德是指从事一定职业的人们在劳动中所应遵循的（）规范</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>准则</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>约束</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>特种设备安全工作应当坚持（）、综合治理的原则。①.安全第一②.预防为主③.节能环保④.监督管理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>②③④</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>①②③</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>①②③④</t>
+  </si>
+  <si>
+    <t>①②④</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（）是特种设备最基本的检验方法，通常在采用其他检验方法之前进行，是进一步检验的基础。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏观检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直观检查</t>
+  </si>
+  <si>
+    <t>量具检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无损检测</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全阀是一种（）装置。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>计量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连锁</t>
+  </si>
+  <si>
+    <t>报警</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泄压</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>音响检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部检查</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水压试验</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有经过（）合格的气瓶才可以继续使用。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存放气瓶的库房，相对湿度应控制在（）％以下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久气体气瓶的最高使用温度为（）℃。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气瓶使用中，其周围（）m范围内不得进行有明火或可能产生火花的作业。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>承压类特种设备耐压试验的目的主要是检验设备的（）。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>密封性能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>力学性能</t>
+  </si>
+  <si>
+    <t>抗冲击能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>承压能力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>过期的、不知名的固体化学药品可自行处理。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>领取剧毒物品时，需双人领用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验室发生非火灾类事故，应立即报告单位负责人和学校保卫处，设立警戒区并撤离无关人员，以减轻潜在危害。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验室一旦发生起火，不要惊慌失措，应利用消防器材，采取有效措施控制、扑灭火灾。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电气设备着火时，可以用水扑灭。</t>
+  </si>
+  <si>
+    <t>燃烧必须具备可燃物、助燃物和点火源三大条件，缺一不可。因此，可以采取尽量隔离的方式来防止实验室火灾的发生。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我国消防宣传活动日是每年的</t>
+  </si>
+  <si>
+    <t>我国消防工作的方针是：</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群防群治</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>遏制种特大火灾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>预防为主，防消结合</t>
-  </si>
-  <si>
-    <t>电气安全</t>
-  </si>
-  <si>
-    <t>电气线路发生火灾的原因最可能是（）</t>
-  </si>
-  <si>
-    <t>导线接触不良</t>
-  </si>
-  <si>
-    <t>线路短路保护未动作</t>
-  </si>
-  <si>
-    <t>电气误操作</t>
-  </si>
-  <si>
-    <t>线路发生倒杆事故</t>
-  </si>
-  <si>
-    <t>化学品安全</t>
-  </si>
-  <si>
-    <t>具有下列哪些性质的化学品属于化学危险品( )</t>
-  </si>
-  <si>
-    <t>爆炸</t>
-  </si>
-  <si>
-    <t>易燃、腐蚀、放射性</t>
-  </si>
-  <si>
-    <t>毒害</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 以上都是</t>
-  </si>
-  <si>
-    <t>机械建筑安全</t>
-  </si>
-  <si>
-    <t>使用LES双向加载岩体开挖模拟试验机时，在试验或校力过程中如有紧急情况发生，应立即按下“急停“按钮。()</t>
-  </si>
-  <si>
-    <t>特种设备安全</t>
-  </si>
-  <si>
-    <t>学校对特种设备安全的检查或抽查内容没有的是（）</t>
-  </si>
-  <si>
-    <t>特种设备操作规程和执行情况</t>
-  </si>
-  <si>
-    <t>特种设备负责人和使用人员落实情况</t>
-  </si>
-  <si>
-    <t>特种设备技术档案建立情况</t>
-  </si>
-  <si>
-    <t>特种设备及其部件的形状完好情况</t>
-  </si>
-  <si>
-    <t>医学生物安全</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+  </si>
+  <si>
+    <t>1月19日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月11日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9月10日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当遇到火灾时，要迅速向（ ）逃生。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>着火相反的方向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员多的方向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全出口的方向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火灾中对人员威胁最大的是（ ）。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可燃物</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>储存可燃物资仓库的管理，必须执行国家有关（ ）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物资安全</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳动安全</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在室外灭火时，应站在什么位置?</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>随便哪里</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>泡沫灭火器不能用于扑救 （ ）火灾。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>塑料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽油</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属钠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>运输高致病性病原微生物菌（毒）种或者样本，应当由不少于（）的专人护送，并采取相应的防护措施。</t>
-  </si>
-  <si>
-    <t>1人</t>
-  </si>
-  <si>
-    <t>2人</t>
-  </si>
-  <si>
-    <t>3人</t>
-  </si>
-  <si>
-    <t>4人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续使用、注意观察</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,349 +1348,76 @@
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="华文楷体"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="华文楷体"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -923,255 +1425,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1184,71 +1444,51 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1535,52 +1775,59 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="23.4444444444444" style="1" customWidth="1"/>
-    <col min="2" max="2" width="88.6666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6666666666667" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.8888888888889" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.1111111111111" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.1111111111111" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="106.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
+      <c r="A1" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>377</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>170</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>171</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
@@ -1589,15 +1836,15 @@
         <v>3</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -1609,12 +1856,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="28.8" spans="1:7">
+    <row r="4" spans="1:7" ht="15">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -1626,12 +1873,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="30">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -1640,15 +1887,15 @@
         <v>3</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -1657,15 +1904,15 @@
         <v>3</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" ht="43.2" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>2</v>
@@ -1677,12 +1924,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="30">
       <c r="A8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>2</v>
@@ -1691,15 +1938,15 @@
         <v>3</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15">
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>13</v>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
@@ -1708,15 +1955,15 @@
         <v>3</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>2</v>
@@ -1728,12 +1975,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="15">
       <c r="A11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>15</v>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>2</v>
@@ -1745,12 +1992,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="15">
       <c r="A12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>16</v>
+      <c r="B12" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
@@ -1759,15 +2006,15 @@
         <v>3</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>17</v>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>2</v>
@@ -1776,15 +2023,15 @@
         <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
@@ -1796,12 +2043,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="15">
       <c r="A15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>19</v>
+      <c r="B15" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>2</v>
@@ -1813,12 +2060,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" ht="28.8" spans="1:7">
+    <row r="16" spans="1:7" ht="15">
       <c r="A16" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>20</v>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>2</v>
@@ -1830,12 +2077,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="15">
       <c r="A17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>21</v>
+      <c r="B17" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
@@ -1844,15 +2091,15 @@
         <v>3</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15">
       <c r="A18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>22</v>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>2</v>
@@ -1861,15 +2108,15 @@
         <v>3</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15">
       <c r="A19" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>23</v>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>2</v>
@@ -1881,12 +2128,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="15">
       <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>24</v>
+      <c r="B20" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
@@ -1898,12 +2145,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" ht="15">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>25</v>
+      <c r="B21" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>2</v>
@@ -1912,15 +2159,15 @@
         <v>3</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15">
       <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>26</v>
+      <c r="B22" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>2</v>
@@ -1929,15 +2176,15 @@
         <v>3</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" ht="28.8" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>27</v>
+      <c r="B23" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
@@ -1949,12 +2196,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="30">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>28</v>
+      <c r="B24" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>2</v>
@@ -1966,12 +2213,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="15">
       <c r="A25" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>29</v>
+      <c r="B25" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>2</v>
@@ -1980,274 +2227,271 @@
         <v>3</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>30</v>
+      <c r="B26" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>35</v>
+    <row r="27" spans="1:7" ht="15">
+      <c r="A27" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15">
       <c r="A28" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>40</v>
+      <c r="B28" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15">
       <c r="A29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>46</v>
+      <c r="B29" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15">
       <c r="A30" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>51</v>
+      <c r="B30" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" ht="14" customHeight="1" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="14" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>57</v>
+      <c r="B31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="60">
       <c r="A32" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>61</v>
+      <c r="B32" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15">
       <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>65</v>
+      <c r="B33" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>70</v>
+    <row r="34" spans="1:7" ht="15">
+      <c r="A34" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15">
       <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>74</v>
+      <c r="B35" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" ht="15">
       <c r="A36" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>79</v>
+      <c r="B36" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" ht="15">
       <c r="A37" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>83</v>
+      <c r="B37" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>87</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2255,19 +2499,19 @@
         <v>0</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2275,22 +2519,19 @@
         <v>0</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>87</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2298,88 +2539,91 @@
         <v>0</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>44</v>
+        <v>96</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15">
+      <c r="A42" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E42" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G41" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" ht="15">
       <c r="A43" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>110</v>
+      <c r="B43" s="3" t="s">
+        <v>105</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2387,22 +2631,19 @@
         <v>0</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2410,16 +2651,16 @@
         <v>0</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>44</v>
@@ -2429,112 +2670,112 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="2" t="s">
-        <v>0</v>
+      <c r="A46" s="8" t="s">
+        <v>292</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D47" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G47" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15">
+      <c r="A48" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="4" t="s">
+      <c r="C48" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D48" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E48" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G48" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E49" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G49" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="G48" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>4</v>
@@ -2542,136 +2783,1561 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15">
+      <c r="A52" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15" customHeight="1">
+      <c r="A53" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15">
+      <c r="A54" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15">
+      <c r="A55" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15">
+      <c r="A56" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15">
+      <c r="A57" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15">
+      <c r="A58" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15">
+      <c r="A59" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15">
+      <c r="A60" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15">
+      <c r="A61" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15">
+      <c r="A62" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15">
+      <c r="A63" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15">
+      <c r="A70" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15">
+      <c r="A71" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15">
+      <c r="A72" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15">
+      <c r="A73" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15">
+      <c r="A74" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15">
+      <c r="A75" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15">
+      <c r="A77" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15">
+      <c r="A79" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15">
+      <c r="A80" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15">
+      <c r="A81" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15">
+      <c r="A82" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15">
+      <c r="A83" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15">
+      <c r="A84" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15">
+      <c r="A85" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15">
+      <c r="A86" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15">
+      <c r="A87" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15">
+      <c r="A88" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15">
+      <c r="A89" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C89" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15">
+      <c r="A94" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15">
+      <c r="A95" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15">
+      <c r="A96" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15">
+      <c r="A97" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15">
+      <c r="A98" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15">
+      <c r="A99" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15">
+      <c r="A100" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="15">
+      <c r="A101" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C103" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C105" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>310</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="E106" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="C107" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D107" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C108" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D108" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E108" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="D109" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="C110" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="D110" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C112" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="E112" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="E113" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D51" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G51" s="1" t="s">
+      <c r="G113" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" ht="15" customHeight="1" spans="1:7">
-      <c r="A53" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E55" s="1" t="s">
+    <row r="114" spans="1:7">
+      <c r="A114" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="16">
+      <c r="A118" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="F118" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="15">
+      <c r="A119" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="E120" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D121" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="E122" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D123" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="E124" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="G124" s="6" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E56" s="1" t="s">
+      <c r="B125" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G125" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>4</v>
+    </row>
+    <row r="126" spans="1:7" ht="15">
+      <c r="A126" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G126" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="15">
+      <c r="A127" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G127" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="15">
+      <c r="A128" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G128" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D129" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="G129" s="6" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:A71" xr:uid="{1CF0446F-C381-9444-862D-F21BF2DFC5C0}"/>
+  <sortState ref="A2:G152">
+    <sortCondition ref="A82"/>
+  </sortState>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>